--- a/Desktop/DT/timeline.xlsx
+++ b/Desktop/DT/timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BaoHan/Desktop/DT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EFC9C03-1AD0-8C4D-BD2E-B920D9964F0F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682E7D14-9F63-4A49-B4FA-04FB2A584DF2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t xml:space="preserve"> Start Date:</t>
   </si>
@@ -70,6 +70,18 @@
   </si>
   <si>
     <t>prepare ethics form and state a desgin goal</t>
+  </si>
+  <si>
+    <t>week 9</t>
+  </si>
+  <si>
+    <t>week 10</t>
+  </si>
+  <si>
+    <t>week 11</t>
+  </si>
+  <si>
+    <t>week 12</t>
   </si>
 </sst>
 </file>
@@ -349,7 +361,21 @@
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Weekday" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="1" tint="4.9989318521683403E-2"/>
@@ -584,10 +610,10 @@
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BG17"/>
+  <dimension ref="B1:CI17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -598,13 +624,16 @@
     <col min="18" max="30" width="5.6640625" customWidth="1"/>
     <col min="31" max="45" width="5.6640625" style="1" customWidth="1"/>
     <col min="46" max="51" width="5.6640625" customWidth="1"/>
-    <col min="52" max="52" width="21.5" customWidth="1"/>
-    <col min="53" max="58" width="5.6640625" customWidth="1"/>
-    <col min="59" max="59" width="17.33203125" style="2" customWidth="1"/>
-    <col min="60" max="60" width="2.6640625" customWidth="1"/>
+    <col min="52" max="66" width="5.6640625" style="1" customWidth="1"/>
+    <col min="67" max="72" width="5.6640625" customWidth="1"/>
+    <col min="73" max="79" width="5.6640625" style="1" customWidth="1"/>
+    <col min="80" max="80" width="21.5" customWidth="1"/>
+    <col min="81" max="86" width="5.6640625" customWidth="1"/>
+    <col min="87" max="87" width="17.33203125" style="2" customWidth="1"/>
+    <col min="88" max="88" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:59" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="24" t="s">
         <v>9</v>
       </c>
@@ -665,13 +694,41 @@
       <c r="BE1" s="24"/>
       <c r="BF1" s="24"/>
       <c r="BG1" s="24"/>
+      <c r="BH1" s="24"/>
+      <c r="BI1" s="24"/>
+      <c r="BJ1" s="24"/>
+      <c r="BK1" s="24"/>
+      <c r="BL1" s="24"/>
+      <c r="BM1" s="24"/>
+      <c r="BN1" s="24"/>
+      <c r="BO1" s="24"/>
+      <c r="BP1" s="24"/>
+      <c r="BQ1" s="24"/>
+      <c r="BR1" s="24"/>
+      <c r="BS1" s="24"/>
+      <c r="BT1" s="24"/>
+      <c r="BU1" s="24"/>
+      <c r="BV1" s="24"/>
+      <c r="BW1" s="24"/>
+      <c r="BX1" s="24"/>
+      <c r="BY1" s="24"/>
+      <c r="BZ1" s="24"/>
+      <c r="CA1" s="24"/>
+      <c r="CB1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CD1" s="24"/>
+      <c r="CE1" s="24"/>
+      <c r="CF1" s="24"/>
+      <c r="CG1" s="24"/>
+      <c r="CH1" s="24"/>
+      <c r="CI1" s="24"/>
     </row>
-    <row r="2" spans="2:59" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:87" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="26">
-        <f ca="1">TODAY()</f>
+        <f>DATE(2018,6,5)</f>
         <v>43256</v>
       </c>
       <c r="D2" s="26"/>
@@ -679,11 +736,14 @@
       <c r="AE2" s="26"/>
       <c r="AF2" s="26"/>
       <c r="AG2" s="26"/>
+      <c r="AZ2" s="26"/>
+      <c r="BA2" s="26"/>
+      <c r="BB2" s="26"/>
     </row>
-    <row r="3" spans="2:59" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="2:59" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:87" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" s="27" t="s">
         <v>1</v>
@@ -748,621 +808,993 @@
       <c r="AW4" s="27"/>
       <c r="AX4" s="27"/>
       <c r="AY4" s="27"/>
-      <c r="AZ4" s="22" t="s">
+      <c r="AZ4" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="27"/>
+      <c r="BC4" s="27"/>
+      <c r="BD4" s="27"/>
+      <c r="BE4" s="27"/>
+      <c r="BF4" s="27"/>
+      <c r="BG4" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="BH4" s="25"/>
+      <c r="BI4" s="25"/>
+      <c r="BJ4" s="25"/>
+      <c r="BK4" s="25"/>
+      <c r="BL4" s="25"/>
+      <c r="BM4" s="25"/>
+      <c r="BN4" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO4" s="27"/>
+      <c r="BP4" s="27"/>
+      <c r="BQ4" s="27"/>
+      <c r="BR4" s="27"/>
+      <c r="BS4" s="27"/>
+      <c r="BT4" s="27"/>
+      <c r="BU4" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="BV4" s="25"/>
+      <c r="BW4" s="25"/>
+      <c r="BX4" s="25"/>
+      <c r="BY4" s="25"/>
+      <c r="BZ4" s="25"/>
+      <c r="CA4" s="25"/>
+      <c r="CB4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="CC4" t="s">
         <v>5</v>
       </c>
-      <c r="BG4"/>
+      <c r="CI4"/>
     </row>
-    <row r="5" spans="2:59" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:87" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" s="15" t="str">
-        <f ca="1">LOWER(TEXT(C7,"mmm"))</f>
+        <f>LOWER(TEXT(C7,"mmm"))</f>
         <v>jun</v>
       </c>
       <c r="D5" s="15" t="str">
-        <f ca="1">IF(TEXT(D7,"mmm")=TEXT(C7,"mmm"),"",LOWER(TEXT(D7,"mmm")))</f>
+        <f>IF(TEXT(D7,"mmm")=TEXT(C7,"mmm"),"",LOWER(TEXT(D7,"mmm")))</f>
         <v/>
       </c>
       <c r="E5" s="15" t="str">
-        <f t="shared" ref="E5:AD5" ca="1" si="0">IF(TEXT(E7,"mmm")=TEXT(D7,"mmm"),"",LOWER(TEXT(E7,"mmm")))</f>
+        <f t="shared" ref="E5:AD5" si="0">IF(TEXT(E7,"mmm")=TEXT(D7,"mmm"),"",LOWER(TEXT(E7,"mmm")))</f>
         <v/>
       </c>
       <c r="F5" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="G5" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H5" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I5" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J5" s="16" t="str">
-        <f ca="1">LOWER(TEXT(J7,"mmm"))</f>
+        <f>LOWER(TEXT(J7,"mmm"))</f>
         <v>jun</v>
       </c>
       <c r="K5" s="16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L5" s="16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M5" s="16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N5" s="16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="O5" s="16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="P5" s="16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q5" s="15" t="str">
-        <f ca="1">LOWER(TEXT(Q7,"mmm"))</f>
+        <f>LOWER(TEXT(Q7,"mmm"))</f>
         <v>jun</v>
       </c>
       <c r="R5" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="S5" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="T5" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="U5" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="V5" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="W5" s="15" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="X5" s="16" t="str">
-        <f ca="1">LOWER(TEXT(X7,"mmm"))</f>
+        <f>LOWER(TEXT(X7,"mmm"))</f>
         <v>jun</v>
       </c>
       <c r="Y5" s="16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Z5" s="16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AA5" s="16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AB5" s="16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AC5" s="16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v>jul</v>
       </c>
       <c r="AD5" s="16" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="AE5" s="15" t="str">
-        <f ca="1">LOWER(TEXT(AE7,"mmm"))</f>
+        <f>LOWER(TEXT(AE7,"mmm"))</f>
         <v>jul</v>
       </c>
       <c r="AF5" s="15" t="str">
-        <f ca="1">IF(TEXT(AF7,"mmm")=TEXT(AE7,"mmm"),"",LOWER(TEXT(AF7,"mmm")))</f>
+        <f>IF(TEXT(AF7,"mmm")=TEXT(AE7,"mmm"),"",LOWER(TEXT(AF7,"mmm")))</f>
         <v/>
       </c>
       <c r="AG5" s="15" t="str">
-        <f t="shared" ref="AG5" ca="1" si="1">IF(TEXT(AG7,"mmm")=TEXT(AF7,"mmm"),"",LOWER(TEXT(AG7,"mmm")))</f>
+        <f t="shared" ref="AG5" si="1">IF(TEXT(AG7,"mmm")=TEXT(AF7,"mmm"),"",LOWER(TEXT(AG7,"mmm")))</f>
         <v/>
       </c>
       <c r="AH5" s="15" t="str">
-        <f t="shared" ref="AH5" ca="1" si="2">IF(TEXT(AH7,"mmm")=TEXT(AG7,"mmm"),"",LOWER(TEXT(AH7,"mmm")))</f>
+        <f t="shared" ref="AH5" si="2">IF(TEXT(AH7,"mmm")=TEXT(AG7,"mmm"),"",LOWER(TEXT(AH7,"mmm")))</f>
         <v/>
       </c>
       <c r="AI5" s="15" t="str">
-        <f t="shared" ref="AI5" ca="1" si="3">IF(TEXT(AI7,"mmm")=TEXT(AH7,"mmm"),"",LOWER(TEXT(AI7,"mmm")))</f>
+        <f t="shared" ref="AI5" si="3">IF(TEXT(AI7,"mmm")=TEXT(AH7,"mmm"),"",LOWER(TEXT(AI7,"mmm")))</f>
         <v/>
       </c>
       <c r="AJ5" s="15" t="str">
-        <f t="shared" ref="AJ5" ca="1" si="4">IF(TEXT(AJ7,"mmm")=TEXT(AI7,"mmm"),"",LOWER(TEXT(AJ7,"mmm")))</f>
+        <f t="shared" ref="AJ5" si="4">IF(TEXT(AJ7,"mmm")=TEXT(AI7,"mmm"),"",LOWER(TEXT(AJ7,"mmm")))</f>
         <v/>
       </c>
       <c r="AK5" s="15" t="str">
-        <f t="shared" ref="AK5" ca="1" si="5">IF(TEXT(AK7,"mmm")=TEXT(AJ7,"mmm"),"",LOWER(TEXT(AK7,"mmm")))</f>
+        <f t="shared" ref="AK5" si="5">IF(TEXT(AK7,"mmm")=TEXT(AJ7,"mmm"),"",LOWER(TEXT(AK7,"mmm")))</f>
         <v/>
       </c>
       <c r="AL5" s="16" t="str">
-        <f ca="1">LOWER(TEXT(AL7,"mmm"))</f>
+        <f>LOWER(TEXT(AL7,"mmm"))</f>
         <v>jul</v>
       </c>
       <c r="AM5" s="16" t="str">
-        <f t="shared" ref="AM5" ca="1" si="6">IF(TEXT(AM7,"mmm")=TEXT(AL7,"mmm"),"",LOWER(TEXT(AM7,"mmm")))</f>
+        <f t="shared" ref="AM5" si="6">IF(TEXT(AM7,"mmm")=TEXT(AL7,"mmm"),"",LOWER(TEXT(AM7,"mmm")))</f>
         <v/>
       </c>
       <c r="AN5" s="16" t="str">
-        <f t="shared" ref="AN5" ca="1" si="7">IF(TEXT(AN7,"mmm")=TEXT(AM7,"mmm"),"",LOWER(TEXT(AN7,"mmm")))</f>
+        <f t="shared" ref="AN5" si="7">IF(TEXT(AN7,"mmm")=TEXT(AM7,"mmm"),"",LOWER(TEXT(AN7,"mmm")))</f>
         <v/>
       </c>
       <c r="AO5" s="16" t="str">
-        <f t="shared" ref="AO5" ca="1" si="8">IF(TEXT(AO7,"mmm")=TEXT(AN7,"mmm"),"",LOWER(TEXT(AO7,"mmm")))</f>
+        <f t="shared" ref="AO5" si="8">IF(TEXT(AO7,"mmm")=TEXT(AN7,"mmm"),"",LOWER(TEXT(AO7,"mmm")))</f>
         <v/>
       </c>
       <c r="AP5" s="16" t="str">
-        <f t="shared" ref="AP5" ca="1" si="9">IF(TEXT(AP7,"mmm")=TEXT(AO7,"mmm"),"",LOWER(TEXT(AP7,"mmm")))</f>
+        <f t="shared" ref="AP5" si="9">IF(TEXT(AP7,"mmm")=TEXT(AO7,"mmm"),"",LOWER(TEXT(AP7,"mmm")))</f>
         <v/>
       </c>
       <c r="AQ5" s="16" t="str">
-        <f t="shared" ref="AQ5" ca="1" si="10">IF(TEXT(AQ7,"mmm")=TEXT(AP7,"mmm"),"",LOWER(TEXT(AQ7,"mmm")))</f>
+        <f t="shared" ref="AQ5" si="10">IF(TEXT(AQ7,"mmm")=TEXT(AP7,"mmm"),"",LOWER(TEXT(AQ7,"mmm")))</f>
         <v/>
       </c>
       <c r="AR5" s="16" t="str">
-        <f t="shared" ref="AR5" ca="1" si="11">IF(TEXT(AR7,"mmm")=TEXT(AQ7,"mmm"),"",LOWER(TEXT(AR7,"mmm")))</f>
+        <f t="shared" ref="AR5" si="11">IF(TEXT(AR7,"mmm")=TEXT(AQ7,"mmm"),"",LOWER(TEXT(AR7,"mmm")))</f>
         <v/>
       </c>
       <c r="AS5" s="15" t="str">
-        <f ca="1">LOWER(TEXT(AS7,"mmm"))</f>
+        <f>LOWER(TEXT(AS7,"mmm"))</f>
         <v>jul</v>
       </c>
       <c r="AT5" s="15" t="str">
-        <f t="shared" ref="AT5" ca="1" si="12">IF(TEXT(AT7,"mmm")=TEXT(AS7,"mmm"),"",LOWER(TEXT(AT7,"mmm")))</f>
+        <f t="shared" ref="AT5" si="12">IF(TEXT(AT7,"mmm")=TEXT(AS7,"mmm"),"",LOWER(TEXT(AT7,"mmm")))</f>
         <v/>
       </c>
       <c r="AU5" s="15" t="str">
-        <f t="shared" ref="AU5" ca="1" si="13">IF(TEXT(AU7,"mmm")=TEXT(AT7,"mmm"),"",LOWER(TEXT(AU7,"mmm")))</f>
+        <f t="shared" ref="AU5" si="13">IF(TEXT(AU7,"mmm")=TEXT(AT7,"mmm"),"",LOWER(TEXT(AU7,"mmm")))</f>
         <v/>
       </c>
       <c r="AV5" s="15" t="str">
-        <f t="shared" ref="AV5" ca="1" si="14">IF(TEXT(AV7,"mmm")=TEXT(AU7,"mmm"),"",LOWER(TEXT(AV7,"mmm")))</f>
+        <f t="shared" ref="AV5" si="14">IF(TEXT(AV7,"mmm")=TEXT(AU7,"mmm"),"",LOWER(TEXT(AV7,"mmm")))</f>
         <v/>
       </c>
       <c r="AW5" s="15" t="str">
-        <f t="shared" ref="AW5" ca="1" si="15">IF(TEXT(AW7,"mmm")=TEXT(AV7,"mmm"),"",LOWER(TEXT(AW7,"mmm")))</f>
+        <f t="shared" ref="AW5" si="15">IF(TEXT(AW7,"mmm")=TEXT(AV7,"mmm"),"",LOWER(TEXT(AW7,"mmm")))</f>
         <v/>
       </c>
       <c r="AX5" s="15" t="str">
-        <f t="shared" ref="AX5" ca="1" si="16">IF(TEXT(AX7,"mmm")=TEXT(AW7,"mmm"),"",LOWER(TEXT(AX7,"mmm")))</f>
+        <f t="shared" ref="AX5" si="16">IF(TEXT(AX7,"mmm")=TEXT(AW7,"mmm"),"",LOWER(TEXT(AX7,"mmm")))</f>
         <v/>
       </c>
       <c r="AY5" s="15" t="str">
-        <f t="shared" ref="AY5" ca="1" si="17">IF(TEXT(AY7,"mmm")=TEXT(AX7,"mmm"),"",LOWER(TEXT(AY7,"mmm")))</f>
-        <v/>
-      </c>
-      <c r="AZ5" s="22"/>
-      <c r="BA5" t="s">
+        <f t="shared" ref="AY5" si="17">IF(TEXT(AY7,"mmm")=TEXT(AX7,"mmm"),"",LOWER(TEXT(AY7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="AZ5" s="15" t="str">
+        <f>LOWER(TEXT(AZ7,"mmm"))</f>
+        <v>jul</v>
+      </c>
+      <c r="BA5" s="15" t="str">
+        <f>IF(TEXT(BA7,"mmm")=TEXT(AZ7,"mmm"),"",LOWER(TEXT(BA7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BB5" s="15" t="str">
+        <f t="shared" ref="BB5" si="18">IF(TEXT(BB7,"mmm")=TEXT(BA7,"mmm"),"",LOWER(TEXT(BB7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BC5" s="15" t="str">
+        <f t="shared" ref="BC5" si="19">IF(TEXT(BC7,"mmm")=TEXT(BB7,"mmm"),"",LOWER(TEXT(BC7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BD5" s="15" t="str">
+        <f t="shared" ref="BD5" si="20">IF(TEXT(BD7,"mmm")=TEXT(BC7,"mmm"),"",LOWER(TEXT(BD7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BE5" s="15" t="str">
+        <f t="shared" ref="BE5" si="21">IF(TEXT(BE7,"mmm")=TEXT(BD7,"mmm"),"",LOWER(TEXT(BE7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BF5" s="15" t="str">
+        <f t="shared" ref="BF5" si="22">IF(TEXT(BF7,"mmm")=TEXT(BE7,"mmm"),"",LOWER(TEXT(BF7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BG5" s="16" t="str">
+        <f>LOWER(TEXT(BG7,"mmm"))</f>
+        <v>jul</v>
+      </c>
+      <c r="BH5" s="16" t="str">
+        <f t="shared" ref="BH5" si="23">IF(TEXT(BH7,"mmm")=TEXT(BG7,"mmm"),"",LOWER(TEXT(BH7,"mmm")))</f>
+        <v>aug</v>
+      </c>
+      <c r="BI5" s="16" t="str">
+        <f t="shared" ref="BI5" si="24">IF(TEXT(BI7,"mmm")=TEXT(BH7,"mmm"),"",LOWER(TEXT(BI7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BJ5" s="16" t="str">
+        <f t="shared" ref="BJ5" si="25">IF(TEXT(BJ7,"mmm")=TEXT(BI7,"mmm"),"",LOWER(TEXT(BJ7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BK5" s="16" t="str">
+        <f t="shared" ref="BK5" si="26">IF(TEXT(BK7,"mmm")=TEXT(BJ7,"mmm"),"",LOWER(TEXT(BK7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BL5" s="16" t="str">
+        <f t="shared" ref="BL5" si="27">IF(TEXT(BL7,"mmm")=TEXT(BK7,"mmm"),"",LOWER(TEXT(BL7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BM5" s="16" t="str">
+        <f t="shared" ref="BM5" si="28">IF(TEXT(BM7,"mmm")=TEXT(BL7,"mmm"),"",LOWER(TEXT(BM7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BN5" s="15" t="str">
+        <f>LOWER(TEXT(BN7,"mmm"))</f>
+        <v>aug</v>
+      </c>
+      <c r="BO5" s="15" t="str">
+        <f t="shared" ref="BO5" si="29">IF(TEXT(BO7,"mmm")=TEXT(BN7,"mmm"),"",LOWER(TEXT(BO7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BP5" s="15" t="str">
+        <f t="shared" ref="BP5" si="30">IF(TEXT(BP7,"mmm")=TEXT(BO7,"mmm"),"",LOWER(TEXT(BP7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BQ5" s="15" t="str">
+        <f t="shared" ref="BQ5" si="31">IF(TEXT(BQ7,"mmm")=TEXT(BP7,"mmm"),"",LOWER(TEXT(BQ7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BR5" s="15" t="str">
+        <f t="shared" ref="BR5" si="32">IF(TEXT(BR7,"mmm")=TEXT(BQ7,"mmm"),"",LOWER(TEXT(BR7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BS5" s="15" t="str">
+        <f t="shared" ref="BS5" si="33">IF(TEXT(BS7,"mmm")=TEXT(BR7,"mmm"),"",LOWER(TEXT(BS7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BT5" s="15" t="str">
+        <f t="shared" ref="BT5" si="34">IF(TEXT(BT7,"mmm")=TEXT(BS7,"mmm"),"",LOWER(TEXT(BT7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BU5" s="16" t="str">
+        <f>LOWER(TEXT(BU7,"mmm"))</f>
+        <v>aug</v>
+      </c>
+      <c r="BV5" s="16" t="str">
+        <f t="shared" ref="BV5" si="35">IF(TEXT(BV7,"mmm")=TEXT(BU7,"mmm"),"",LOWER(TEXT(BV7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BW5" s="16" t="str">
+        <f t="shared" ref="BW5" si="36">IF(TEXT(BW7,"mmm")=TEXT(BV7,"mmm"),"",LOWER(TEXT(BW7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BX5" s="16" t="str">
+        <f t="shared" ref="BX5" si="37">IF(TEXT(BX7,"mmm")=TEXT(BW7,"mmm"),"",LOWER(TEXT(BX7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BY5" s="16" t="str">
+        <f t="shared" ref="BY5" si="38">IF(TEXT(BY7,"mmm")=TEXT(BX7,"mmm"),"",LOWER(TEXT(BY7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="BZ5" s="16" t="str">
+        <f t="shared" ref="BZ5" si="39">IF(TEXT(BZ7,"mmm")=TEXT(BY7,"mmm"),"",LOWER(TEXT(BZ7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="CA5" s="16" t="str">
+        <f t="shared" ref="CA5" si="40">IF(TEXT(CA7,"mmm")=TEXT(BZ7,"mmm"),"",LOWER(TEXT(CA7,"mmm")))</f>
+        <v/>
+      </c>
+      <c r="CB5" s="22"/>
+      <c r="CC5" t="s">
         <v>5</v>
       </c>
-      <c r="BG5"/>
+      <c r="CI5"/>
     </row>
-    <row r="6" spans="2:59" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:87" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="10"/>
       <c r="C6" s="13" t="str">
-        <f ca="1">LOWER(TEXT(C7,"aaa"))</f>
+        <f>LOWER(TEXT(C7,"aaa"))</f>
         <v>tue</v>
       </c>
       <c r="D6" s="13" t="str">
-        <f t="shared" ref="D6:AY6" ca="1" si="18">LOWER(TEXT(D7,"aaa"))</f>
+        <f t="shared" ref="D6:BO6" si="41">LOWER(TEXT(D7,"aaa"))</f>
         <v>wed</v>
       </c>
       <c r="E6" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>thu</v>
       </c>
       <c r="F6" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>fri</v>
       </c>
       <c r="G6" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sat</v>
       </c>
       <c r="H6" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sun</v>
       </c>
       <c r="I6" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>mon</v>
       </c>
       <c r="J6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>tue</v>
       </c>
       <c r="K6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>wed</v>
       </c>
       <c r="L6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>thu</v>
       </c>
       <c r="M6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>fri</v>
       </c>
       <c r="N6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sat</v>
       </c>
       <c r="O6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sun</v>
       </c>
       <c r="P6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>mon</v>
       </c>
       <c r="Q6" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>tue</v>
       </c>
       <c r="R6" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>wed</v>
       </c>
       <c r="S6" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>thu</v>
       </c>
       <c r="T6" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>fri</v>
       </c>
       <c r="U6" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sat</v>
       </c>
       <c r="V6" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sun</v>
       </c>
       <c r="W6" s="13" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>mon</v>
       </c>
       <c r="X6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>tue</v>
       </c>
       <c r="Y6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>wed</v>
       </c>
       <c r="Z6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>thu</v>
       </c>
       <c r="AA6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>fri</v>
       </c>
       <c r="AB6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sat</v>
       </c>
       <c r="AC6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sun</v>
       </c>
       <c r="AD6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>mon</v>
       </c>
       <c r="AE6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>tue</v>
       </c>
       <c r="AF6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>wed</v>
       </c>
       <c r="AG6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>thu</v>
       </c>
       <c r="AH6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>fri</v>
       </c>
       <c r="AI6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sat</v>
       </c>
       <c r="AJ6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sun</v>
       </c>
       <c r="AK6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>mon</v>
       </c>
       <c r="AL6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>tue</v>
       </c>
       <c r="AM6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>wed</v>
       </c>
       <c r="AN6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>thu</v>
       </c>
       <c r="AO6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>fri</v>
       </c>
       <c r="AP6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sat</v>
       </c>
       <c r="AQ6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sun</v>
       </c>
       <c r="AR6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>mon</v>
       </c>
       <c r="AS6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>tue</v>
       </c>
       <c r="AT6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>wed</v>
       </c>
       <c r="AU6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>thu</v>
       </c>
       <c r="AV6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>fri</v>
       </c>
       <c r="AW6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sat</v>
       </c>
       <c r="AX6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>sun</v>
       </c>
       <c r="AY6" s="17" t="str">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" si="41"/>
         <v>mon</v>
       </c>
-      <c r="AZ6" s="22"/>
-      <c r="BG6"/>
+      <c r="AZ6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>tue</v>
+      </c>
+      <c r="BA6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>wed</v>
+      </c>
+      <c r="BB6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>thu</v>
+      </c>
+      <c r="BC6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>fri</v>
+      </c>
+      <c r="BD6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>sat</v>
+      </c>
+      <c r="BE6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>sun</v>
+      </c>
+      <c r="BF6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>mon</v>
+      </c>
+      <c r="BG6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>tue</v>
+      </c>
+      <c r="BH6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>wed</v>
+      </c>
+      <c r="BI6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>thu</v>
+      </c>
+      <c r="BJ6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>fri</v>
+      </c>
+      <c r="BK6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>sat</v>
+      </c>
+      <c r="BL6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>sun</v>
+      </c>
+      <c r="BM6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>mon</v>
+      </c>
+      <c r="BN6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>tue</v>
+      </c>
+      <c r="BO6" s="17" t="str">
+        <f t="shared" si="41"/>
+        <v>wed</v>
+      </c>
+      <c r="BP6" s="17" t="str">
+        <f t="shared" ref="BP6:CA6" si="42">LOWER(TEXT(BP7,"aaa"))</f>
+        <v>thu</v>
+      </c>
+      <c r="BQ6" s="17" t="str">
+        <f t="shared" si="42"/>
+        <v>fri</v>
+      </c>
+      <c r="BR6" s="17" t="str">
+        <f t="shared" si="42"/>
+        <v>sat</v>
+      </c>
+      <c r="BS6" s="17" t="str">
+        <f t="shared" si="42"/>
+        <v>sun</v>
+      </c>
+      <c r="BT6" s="17" t="str">
+        <f t="shared" si="42"/>
+        <v>mon</v>
+      </c>
+      <c r="BU6" s="17" t="str">
+        <f t="shared" si="42"/>
+        <v>tue</v>
+      </c>
+      <c r="BV6" s="17" t="str">
+        <f t="shared" si="42"/>
+        <v>wed</v>
+      </c>
+      <c r="BW6" s="17" t="str">
+        <f t="shared" si="42"/>
+        <v>thu</v>
+      </c>
+      <c r="BX6" s="17" t="str">
+        <f t="shared" si="42"/>
+        <v>fri</v>
+      </c>
+      <c r="BY6" s="17" t="str">
+        <f t="shared" si="42"/>
+        <v>sat</v>
+      </c>
+      <c r="BZ6" s="17" t="str">
+        <f t="shared" si="42"/>
+        <v>sun</v>
+      </c>
+      <c r="CA6" s="17" t="str">
+        <f t="shared" si="42"/>
+        <v>mon</v>
+      </c>
+      <c r="CB6" s="22"/>
+      <c r="CI6"/>
     </row>
-    <row r="7" spans="2:59" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="14">
-        <f ca="1">C2</f>
+        <f>C2</f>
         <v>43256</v>
       </c>
       <c r="D7" s="14">
-        <f ca="1">C7+1</f>
+        <f>C7+1</f>
         <v>43257</v>
       </c>
       <c r="E7" s="14">
-        <f t="shared" ref="E7:Q7" ca="1" si="19">D7+1</f>
+        <f t="shared" ref="E7:Q7" si="43">D7+1</f>
         <v>43258</v>
       </c>
       <c r="F7" s="14">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="43"/>
         <v>43259</v>
       </c>
       <c r="G7" s="14">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="43"/>
         <v>43260</v>
       </c>
       <c r="H7" s="14">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="43"/>
         <v>43261</v>
       </c>
       <c r="I7" s="14">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="43"/>
         <v>43262</v>
       </c>
       <c r="J7" s="18">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="43"/>
         <v>43263</v>
       </c>
       <c r="K7" s="18">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="43"/>
         <v>43264</v>
       </c>
       <c r="L7" s="18">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="43"/>
         <v>43265</v>
       </c>
       <c r="M7" s="18">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="43"/>
         <v>43266</v>
       </c>
       <c r="N7" s="18">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="43"/>
         <v>43267</v>
       </c>
       <c r="O7" s="18">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="43"/>
         <v>43268</v>
       </c>
       <c r="P7" s="18">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="43"/>
         <v>43269</v>
       </c>
       <c r="Q7" s="14">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" si="43"/>
         <v>43270</v>
       </c>
       <c r="R7" s="14">
-        <f t="shared" ref="R7:X7" ca="1" si="20">Q7+1</f>
+        <f t="shared" ref="R7:X7" si="44">Q7+1</f>
         <v>43271</v>
       </c>
       <c r="S7" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" si="44"/>
         <v>43272</v>
       </c>
       <c r="T7" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" si="44"/>
         <v>43273</v>
       </c>
       <c r="U7" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" si="44"/>
         <v>43274</v>
       </c>
       <c r="V7" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" si="44"/>
         <v>43275</v>
       </c>
       <c r="W7" s="14">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" si="44"/>
         <v>43276</v>
       </c>
       <c r="X7" s="18">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" si="44"/>
         <v>43277</v>
       </c>
       <c r="Y7" s="18">
-        <f t="shared" ref="Y7:AC7" ca="1" si="21">X7+1</f>
+        <f t="shared" ref="Y7:AC7" si="45">X7+1</f>
         <v>43278</v>
       </c>
       <c r="Z7" s="18">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="45"/>
         <v>43279</v>
       </c>
       <c r="AA7" s="18">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="45"/>
         <v>43280</v>
       </c>
       <c r="AB7" s="18">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="45"/>
         <v>43281</v>
       </c>
       <c r="AC7" s="18">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" si="45"/>
         <v>43282</v>
       </c>
       <c r="AD7" s="18">
-        <f t="shared" ref="AD7" ca="1" si="22">AC7+1</f>
+        <f t="shared" ref="AD7" si="46">AC7+1</f>
         <v>43283</v>
       </c>
       <c r="AE7" s="18">
-        <f t="shared" ref="AE7" ca="1" si="23">AD7+1</f>
+        <f t="shared" ref="AE7" si="47">AD7+1</f>
         <v>43284</v>
       </c>
       <c r="AF7" s="18">
-        <f t="shared" ref="AF7" ca="1" si="24">AE7+1</f>
+        <f t="shared" ref="AF7" si="48">AE7+1</f>
         <v>43285</v>
       </c>
       <c r="AG7" s="18">
-        <f t="shared" ref="AG7" ca="1" si="25">AF7+1</f>
+        <f t="shared" ref="AG7" si="49">AF7+1</f>
         <v>43286</v>
       </c>
       <c r="AH7" s="18">
-        <f t="shared" ref="AH7" ca="1" si="26">AG7+1</f>
+        <f t="shared" ref="AH7" si="50">AG7+1</f>
         <v>43287</v>
       </c>
       <c r="AI7" s="18">
-        <f t="shared" ref="AI7" ca="1" si="27">AH7+1</f>
+        <f t="shared" ref="AI7" si="51">AH7+1</f>
         <v>43288</v>
       </c>
       <c r="AJ7" s="18">
-        <f t="shared" ref="AJ7" ca="1" si="28">AI7+1</f>
+        <f t="shared" ref="AJ7" si="52">AI7+1</f>
         <v>43289</v>
       </c>
       <c r="AK7" s="18">
-        <f t="shared" ref="AK7" ca="1" si="29">AJ7+1</f>
+        <f t="shared" ref="AK7" si="53">AJ7+1</f>
         <v>43290</v>
       </c>
       <c r="AL7" s="18">
-        <f t="shared" ref="AL7" ca="1" si="30">AK7+1</f>
+        <f t="shared" ref="AL7" si="54">AK7+1</f>
         <v>43291</v>
       </c>
       <c r="AM7" s="18">
-        <f t="shared" ref="AM7" ca="1" si="31">AL7+1</f>
+        <f t="shared" ref="AM7" si="55">AL7+1</f>
         <v>43292</v>
       </c>
       <c r="AN7" s="18">
-        <f t="shared" ref="AN7" ca="1" si="32">AM7+1</f>
+        <f t="shared" ref="AN7" si="56">AM7+1</f>
         <v>43293</v>
       </c>
       <c r="AO7" s="18">
-        <f t="shared" ref="AO7" ca="1" si="33">AN7+1</f>
+        <f t="shared" ref="AO7" si="57">AN7+1</f>
         <v>43294</v>
       </c>
       <c r="AP7" s="18">
-        <f t="shared" ref="AP7" ca="1" si="34">AO7+1</f>
+        <f t="shared" ref="AP7" si="58">AO7+1</f>
         <v>43295</v>
       </c>
       <c r="AQ7" s="18">
-        <f t="shared" ref="AQ7" ca="1" si="35">AP7+1</f>
+        <f t="shared" ref="AQ7" si="59">AP7+1</f>
         <v>43296</v>
       </c>
       <c r="AR7" s="18">
-        <f t="shared" ref="AR7" ca="1" si="36">AQ7+1</f>
+        <f t="shared" ref="AR7" si="60">AQ7+1</f>
         <v>43297</v>
       </c>
       <c r="AS7" s="18">
-        <f t="shared" ref="AS7" ca="1" si="37">AR7+1</f>
+        <f t="shared" ref="AS7" si="61">AR7+1</f>
         <v>43298</v>
       </c>
       <c r="AT7" s="18">
-        <f t="shared" ref="AT7" ca="1" si="38">AS7+1</f>
+        <f t="shared" ref="AT7" si="62">AS7+1</f>
         <v>43299</v>
       </c>
       <c r="AU7" s="18">
-        <f t="shared" ref="AU7" ca="1" si="39">AT7+1</f>
+        <f t="shared" ref="AU7" si="63">AT7+1</f>
         <v>43300</v>
       </c>
       <c r="AV7" s="18">
-        <f t="shared" ref="AV7" ca="1" si="40">AU7+1</f>
+        <f t="shared" ref="AV7" si="64">AU7+1</f>
         <v>43301</v>
       </c>
       <c r="AW7" s="18">
-        <f t="shared" ref="AW7" ca="1" si="41">AV7+1</f>
+        <f t="shared" ref="AW7" si="65">AV7+1</f>
         <v>43302</v>
       </c>
       <c r="AX7" s="18">
-        <f t="shared" ref="AX7" ca="1" si="42">AW7+1</f>
+        <f t="shared" ref="AX7" si="66">AW7+1</f>
         <v>43303</v>
       </c>
       <c r="AY7" s="18">
-        <f t="shared" ref="AY7" ca="1" si="43">AX7+1</f>
+        <f t="shared" ref="AY7" si="67">AX7+1</f>
         <v>43304</v>
       </c>
-      <c r="AZ7" s="23"/>
-      <c r="BG7"/>
+      <c r="AZ7" s="18">
+        <f t="shared" ref="AZ7" si="68">AY7+1</f>
+        <v>43305</v>
+      </c>
+      <c r="BA7" s="18">
+        <f t="shared" ref="BA7" si="69">AZ7+1</f>
+        <v>43306</v>
+      </c>
+      <c r="BB7" s="18">
+        <f t="shared" ref="BB7" si="70">BA7+1</f>
+        <v>43307</v>
+      </c>
+      <c r="BC7" s="18">
+        <f t="shared" ref="BC7" si="71">BB7+1</f>
+        <v>43308</v>
+      </c>
+      <c r="BD7" s="18">
+        <f t="shared" ref="BD7" si="72">BC7+1</f>
+        <v>43309</v>
+      </c>
+      <c r="BE7" s="18">
+        <f t="shared" ref="BE7" si="73">BD7+1</f>
+        <v>43310</v>
+      </c>
+      <c r="BF7" s="18">
+        <f t="shared" ref="BF7" si="74">BE7+1</f>
+        <v>43311</v>
+      </c>
+      <c r="BG7" s="18">
+        <f t="shared" ref="BG7" si="75">BF7+1</f>
+        <v>43312</v>
+      </c>
+      <c r="BH7" s="18">
+        <f t="shared" ref="BH7" si="76">BG7+1</f>
+        <v>43313</v>
+      </c>
+      <c r="BI7" s="18">
+        <f t="shared" ref="BI7" si="77">BH7+1</f>
+        <v>43314</v>
+      </c>
+      <c r="BJ7" s="18">
+        <f t="shared" ref="BJ7" si="78">BI7+1</f>
+        <v>43315</v>
+      </c>
+      <c r="BK7" s="18">
+        <f t="shared" ref="BK7" si="79">BJ7+1</f>
+        <v>43316</v>
+      </c>
+      <c r="BL7" s="18">
+        <f t="shared" ref="BL7" si="80">BK7+1</f>
+        <v>43317</v>
+      </c>
+      <c r="BM7" s="18">
+        <f t="shared" ref="BM7" si="81">BL7+1</f>
+        <v>43318</v>
+      </c>
+      <c r="BN7" s="18">
+        <f t="shared" ref="BN7" si="82">BM7+1</f>
+        <v>43319</v>
+      </c>
+      <c r="BO7" s="18">
+        <f t="shared" ref="BO7" si="83">BN7+1</f>
+        <v>43320</v>
+      </c>
+      <c r="BP7" s="18">
+        <f t="shared" ref="BP7" si="84">BO7+1</f>
+        <v>43321</v>
+      </c>
+      <c r="BQ7" s="18">
+        <f t="shared" ref="BQ7" si="85">BP7+1</f>
+        <v>43322</v>
+      </c>
+      <c r="BR7" s="18">
+        <f t="shared" ref="BR7" si="86">BQ7+1</f>
+        <v>43323</v>
+      </c>
+      <c r="BS7" s="18">
+        <f t="shared" ref="BS7" si="87">BR7+1</f>
+        <v>43324</v>
+      </c>
+      <c r="BT7" s="18">
+        <f t="shared" ref="BT7" si="88">BS7+1</f>
+        <v>43325</v>
+      </c>
+      <c r="BU7" s="18">
+        <f t="shared" ref="BU7" si="89">BT7+1</f>
+        <v>43326</v>
+      </c>
+      <c r="BV7" s="18">
+        <f t="shared" ref="BV7" si="90">BU7+1</f>
+        <v>43327</v>
+      </c>
+      <c r="BW7" s="18">
+        <f t="shared" ref="BW7" si="91">BV7+1</f>
+        <v>43328</v>
+      </c>
+      <c r="BX7" s="18">
+        <f t="shared" ref="BX7" si="92">BW7+1</f>
+        <v>43329</v>
+      </c>
+      <c r="BY7" s="18">
+        <f t="shared" ref="BY7" si="93">BX7+1</f>
+        <v>43330</v>
+      </c>
+      <c r="BZ7" s="18">
+        <f t="shared" ref="BZ7" si="94">BY7+1</f>
+        <v>43331</v>
+      </c>
+      <c r="CA7" s="18">
+        <f t="shared" ref="CA7" si="95">BZ7+1</f>
+        <v>43332</v>
+      </c>
+      <c r="CB7" s="23"/>
+      <c r="CI7"/>
     </row>
-    <row r="8" spans="2:59" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="20"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
@@ -1415,12 +1847,40 @@
       <c r="AW8" s="6"/>
       <c r="AX8" s="5"/>
       <c r="AY8" s="6"/>
-      <c r="AZ8" s="21" t="s">
+      <c r="AZ8" s="6"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="6"/>
+      <c r="BC8" s="7"/>
+      <c r="BD8" s="6"/>
+      <c r="BE8" s="7"/>
+      <c r="BF8" s="6"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="6"/>
+      <c r="BK8" s="7"/>
+      <c r="BL8" s="6"/>
+      <c r="BM8" s="7"/>
+      <c r="BN8" s="6"/>
+      <c r="BO8" s="7"/>
+      <c r="BP8" s="6"/>
+      <c r="BQ8" s="7"/>
+      <c r="BR8" s="6"/>
+      <c r="BS8" s="5"/>
+      <c r="BT8" s="6"/>
+      <c r="BU8" s="7"/>
+      <c r="BV8" s="6"/>
+      <c r="BW8" s="7"/>
+      <c r="BX8" s="6"/>
+      <c r="BY8" s="7"/>
+      <c r="BZ8" s="6"/>
+      <c r="CA8" s="7"/>
+      <c r="CB8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="BG8"/>
+      <c r="CI8"/>
     </row>
-    <row r="9" spans="2:59" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="20"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
@@ -1471,12 +1931,40 @@
       <c r="AW9" s="6"/>
       <c r="AX9" s="7"/>
       <c r="AY9" s="6"/>
-      <c r="AZ9" s="21" t="s">
+      <c r="AZ9" s="6"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="6"/>
+      <c r="BC9" s="7"/>
+      <c r="BD9" s="6"/>
+      <c r="BE9" s="7"/>
+      <c r="BF9" s="6"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="6"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="6"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="6"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="6"/>
+      <c r="BO9" s="7"/>
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="7"/>
+      <c r="BR9" s="6"/>
+      <c r="BS9" s="7"/>
+      <c r="BT9" s="6"/>
+      <c r="BU9" s="7"/>
+      <c r="BV9" s="6"/>
+      <c r="BW9" s="7"/>
+      <c r="BX9" s="6"/>
+      <c r="BY9" s="7"/>
+      <c r="BZ9" s="6"/>
+      <c r="CA9" s="7"/>
+      <c r="CB9" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BG9"/>
+      <c r="CI9"/>
     </row>
-    <row r="10" spans="2:59" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="20"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
@@ -1527,12 +2015,40 @@
       <c r="AW10" s="6"/>
       <c r="AX10" s="7"/>
       <c r="AY10" s="6"/>
-      <c r="AZ10" s="21" t="s">
+      <c r="AZ10" s="6"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="6"/>
+      <c r="BC10" s="7"/>
+      <c r="BD10" s="6"/>
+      <c r="BE10" s="7"/>
+      <c r="BF10" s="6"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="7"/>
+      <c r="BJ10" s="6"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="6"/>
+      <c r="BM10" s="7"/>
+      <c r="BN10" s="6"/>
+      <c r="BO10" s="7"/>
+      <c r="BP10" s="6"/>
+      <c r="BQ10" s="7"/>
+      <c r="BR10" s="6"/>
+      <c r="BS10" s="7"/>
+      <c r="BT10" s="6"/>
+      <c r="BU10" s="7"/>
+      <c r="BV10" s="6"/>
+      <c r="BW10" s="7"/>
+      <c r="BX10" s="6"/>
+      <c r="BY10" s="7"/>
+      <c r="BZ10" s="6"/>
+      <c r="CA10" s="7"/>
+      <c r="CB10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BG10"/>
+      <c r="CI10"/>
     </row>
-    <row r="11" spans="2:59" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="20"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
@@ -1583,12 +2099,40 @@
       <c r="AW11" s="6"/>
       <c r="AX11" s="7"/>
       <c r="AY11" s="6"/>
-      <c r="AZ11" s="21" t="s">
+      <c r="AZ11" s="6"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="6"/>
+      <c r="BC11" s="7"/>
+      <c r="BD11" s="6"/>
+      <c r="BE11" s="7"/>
+      <c r="BF11" s="6"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="6"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="6"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="6"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="6"/>
+      <c r="BO11" s="7"/>
+      <c r="BP11" s="6"/>
+      <c r="BQ11" s="7"/>
+      <c r="BR11" s="6"/>
+      <c r="BS11" s="7"/>
+      <c r="BT11" s="6"/>
+      <c r="BU11" s="7"/>
+      <c r="BV11" s="6"/>
+      <c r="BW11" s="7"/>
+      <c r="BX11" s="6"/>
+      <c r="BY11" s="7"/>
+      <c r="BZ11" s="6"/>
+      <c r="CA11" s="7"/>
+      <c r="CB11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BG11"/>
+      <c r="CI11"/>
     </row>
-    <row r="12" spans="2:59" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="20"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -1639,12 +2183,40 @@
       <c r="AW12" s="6"/>
       <c r="AX12" s="7"/>
       <c r="AY12" s="6"/>
-      <c r="AZ12" s="21" t="s">
+      <c r="AZ12" s="6"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="6"/>
+      <c r="BC12" s="7"/>
+      <c r="BD12" s="6"/>
+      <c r="BE12" s="7"/>
+      <c r="BF12" s="6"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="7"/>
+      <c r="BJ12" s="6"/>
+      <c r="BK12" s="7"/>
+      <c r="BL12" s="6"/>
+      <c r="BM12" s="7"/>
+      <c r="BN12" s="6"/>
+      <c r="BO12" s="7"/>
+      <c r="BP12" s="6"/>
+      <c r="BQ12" s="7"/>
+      <c r="BR12" s="6"/>
+      <c r="BS12" s="7"/>
+      <c r="BT12" s="6"/>
+      <c r="BU12" s="7"/>
+      <c r="BV12" s="6"/>
+      <c r="BW12" s="7"/>
+      <c r="BX12" s="6"/>
+      <c r="BY12" s="7"/>
+      <c r="BZ12" s="6"/>
+      <c r="CA12" s="7"/>
+      <c r="CB12" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BG12"/>
+      <c r="CI12"/>
     </row>
-    <row r="13" spans="2:59" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="19"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
@@ -1695,12 +2267,40 @@
       <c r="AW13" s="6"/>
       <c r="AX13" s="7"/>
       <c r="AY13" s="6"/>
-      <c r="AZ13" s="21" t="s">
+      <c r="AZ13" s="6"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="6"/>
+      <c r="BC13" s="7"/>
+      <c r="BD13" s="6"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="6"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="6"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="7"/>
+      <c r="BL13" s="6"/>
+      <c r="BM13" s="7"/>
+      <c r="BN13" s="6"/>
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="6"/>
+      <c r="BQ13" s="7"/>
+      <c r="BR13" s="6"/>
+      <c r="BS13" s="7"/>
+      <c r="BT13" s="6"/>
+      <c r="BU13" s="7"/>
+      <c r="BV13" s="6"/>
+      <c r="BW13" s="7"/>
+      <c r="BX13" s="6"/>
+      <c r="BY13" s="7"/>
+      <c r="BZ13" s="6"/>
+      <c r="CA13" s="7"/>
+      <c r="CB13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BG13"/>
+      <c r="CI13"/>
     </row>
-    <row r="14" spans="2:59" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
@@ -1751,12 +2351,40 @@
       <c r="AW14" s="6"/>
       <c r="AX14" s="7"/>
       <c r="AY14" s="6"/>
-      <c r="AZ14" s="21" t="s">
+      <c r="AZ14" s="6"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="6"/>
+      <c r="BC14" s="7"/>
+      <c r="BD14" s="6"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="6"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="6"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="6"/>
+      <c r="BK14" s="7"/>
+      <c r="BL14" s="6"/>
+      <c r="BM14" s="7"/>
+      <c r="BN14" s="6"/>
+      <c r="BO14" s="7"/>
+      <c r="BP14" s="6"/>
+      <c r="BQ14" s="7"/>
+      <c r="BR14" s="6"/>
+      <c r="BS14" s="7"/>
+      <c r="BT14" s="6"/>
+      <c r="BU14" s="7"/>
+      <c r="BV14" s="6"/>
+      <c r="BW14" s="7"/>
+      <c r="BX14" s="6"/>
+      <c r="BY14" s="7"/>
+      <c r="BZ14" s="6"/>
+      <c r="CA14" s="7"/>
+      <c r="CB14" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BG14"/>
+      <c r="CI14"/>
     </row>
-    <row r="15" spans="2:59" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="19"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
@@ -1807,12 +2435,40 @@
       <c r="AW15" s="6"/>
       <c r="AX15" s="7"/>
       <c r="AY15" s="6"/>
-      <c r="AZ15" s="21" t="s">
+      <c r="AZ15" s="6"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="6"/>
+      <c r="BC15" s="7"/>
+      <c r="BD15" s="6"/>
+      <c r="BE15" s="7"/>
+      <c r="BF15" s="6"/>
+      <c r="BG15" s="7"/>
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="7"/>
+      <c r="BJ15" s="6"/>
+      <c r="BK15" s="7"/>
+      <c r="BL15" s="6"/>
+      <c r="BM15" s="7"/>
+      <c r="BN15" s="6"/>
+      <c r="BO15" s="7"/>
+      <c r="BP15" s="6"/>
+      <c r="BQ15" s="7"/>
+      <c r="BR15" s="6"/>
+      <c r="BS15" s="7"/>
+      <c r="BT15" s="6"/>
+      <c r="BU15" s="7"/>
+      <c r="BV15" s="6"/>
+      <c r="BW15" s="7"/>
+      <c r="BX15" s="6"/>
+      <c r="BY15" s="7"/>
+      <c r="BZ15" s="6"/>
+      <c r="CA15" s="7"/>
+      <c r="CB15" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BG15"/>
+      <c r="CI15"/>
     </row>
-    <row r="16" spans="2:59" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="19"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
@@ -1863,12 +2519,40 @@
       <c r="AW16" s="6"/>
       <c r="AX16" s="7"/>
       <c r="AY16" s="6"/>
-      <c r="AZ16" s="21" t="s">
+      <c r="AZ16" s="6"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="6"/>
+      <c r="BC16" s="7"/>
+      <c r="BD16" s="6"/>
+      <c r="BE16" s="7"/>
+      <c r="BF16" s="6"/>
+      <c r="BG16" s="7"/>
+      <c r="BH16" s="6"/>
+      <c r="BI16" s="7"/>
+      <c r="BJ16" s="6"/>
+      <c r="BK16" s="7"/>
+      <c r="BL16" s="6"/>
+      <c r="BM16" s="7"/>
+      <c r="BN16" s="6"/>
+      <c r="BO16" s="7"/>
+      <c r="BP16" s="6"/>
+      <c r="BQ16" s="7"/>
+      <c r="BR16" s="6"/>
+      <c r="BS16" s="7"/>
+      <c r="BT16" s="6"/>
+      <c r="BU16" s="7"/>
+      <c r="BV16" s="6"/>
+      <c r="BW16" s="7"/>
+      <c r="BX16" s="6"/>
+      <c r="BY16" s="7"/>
+      <c r="BZ16" s="6"/>
+      <c r="CA16" s="7"/>
+      <c r="CB16" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BG16"/>
+      <c r="CI16"/>
     </row>
-    <row r="17" spans="2:59" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="19"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
@@ -1919,15 +2603,43 @@
       <c r="AW17" s="6"/>
       <c r="AX17" s="7"/>
       <c r="AY17" s="6"/>
-      <c r="AZ17" s="21" t="s">
+      <c r="AZ17" s="6"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="6"/>
+      <c r="BC17" s="7"/>
+      <c r="BD17" s="6"/>
+      <c r="BE17" s="7"/>
+      <c r="BF17" s="6"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="6"/>
+      <c r="BI17" s="7"/>
+      <c r="BJ17" s="6"/>
+      <c r="BK17" s="7"/>
+      <c r="BL17" s="6"/>
+      <c r="BM17" s="7"/>
+      <c r="BN17" s="6"/>
+      <c r="BO17" s="7"/>
+      <c r="BP17" s="6"/>
+      <c r="BQ17" s="7"/>
+      <c r="BR17" s="6"/>
+      <c r="BS17" s="7"/>
+      <c r="BT17" s="6"/>
+      <c r="BU17" s="7"/>
+      <c r="BV17" s="6"/>
+      <c r="BW17" s="7"/>
+      <c r="BX17" s="6"/>
+      <c r="BY17" s="7"/>
+      <c r="BZ17" s="6"/>
+      <c r="CA17" s="7"/>
+      <c r="CB17" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="BG17"/>
+      <c r="CI17"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="AZ4:AZ7"/>
-    <mergeCell ref="B1:BG1"/>
+  <mergeCells count="16">
+    <mergeCell ref="CB4:CB7"/>
+    <mergeCell ref="B1:CI1"/>
     <mergeCell ref="X4:AD4"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C4:I4"/>
@@ -1937,22 +2649,32 @@
     <mergeCell ref="AE4:AK4"/>
     <mergeCell ref="AL4:AR4"/>
     <mergeCell ref="AS4:AY4"/>
+    <mergeCell ref="AZ4:BF4"/>
+    <mergeCell ref="AZ2:BB2"/>
+    <mergeCell ref="BG4:BM4"/>
+    <mergeCell ref="BN4:BT4"/>
+    <mergeCell ref="BU4:CA4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C6:AY7">
+  <conditionalFormatting sqref="C6:AY7 BU6:CA7">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>C$7=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AZ6:BT7">
     <cfRule type="expression" dxfId="0" priority="2">
-      <formula>C$7=TODAY()</formula>
+      <formula>AZ$7=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a Project Timeline in this worksheet. Enter Start Date in cell C2 and other details starting in cell B4" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in cell at right" sqref="B2" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this cell" sqref="C2:E2 AE2:AG2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell" sqref="B1:BG1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Start Date in this cell" sqref="C2:E2 AE2:AG2 AZ2:BB2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Days of the week are automatically updated in this row. Enter assigned to person's name in cells below and their tasks in the row at right of their name" sqref="B7" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Update task status in cells below for each task assigned to a person in column B" sqref="AZ4:AZ7" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Update task status in cells below for each task assigned to a person in column B" sqref="CB4:CB7" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Week number is in cell blocks C to I, J to P, Q to W and X to AD in this row" sqref="B4" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Month is automatically updated in this row" sqref="B5" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Weekdays are automatically updated in this row" sqref="B6" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell" sqref="B1:CI1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Desktop/DT/timeline.xlsx
+++ b/Desktop/DT/timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BaoHan/Desktop/DT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682E7D14-9F63-4A49-B4FA-04FB2A584DF2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312377AF-1385-F248-8C27-68C0B7F3C9B8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t xml:space="preserve"> Start Date:</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>week 12</t>
+  </si>
+  <si>
+    <t>start Java initial files: rules</t>
+  </si>
+  <si>
+    <t>finishes</t>
   </si>
 </sst>
 </file>
@@ -144,7 +150,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +178,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,8 +253,8 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
@@ -262,7 +274,7 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -293,6 +305,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -338,14 +353,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="6">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="10" applyFont="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -612,8 +630,8 @@
   </sheetPr>
   <dimension ref="B1:CI17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BF1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CF16" sqref="CF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -634,217 +652,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:87" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="24"/>
-      <c r="AI1" s="24"/>
-      <c r="AJ1" s="24"/>
-      <c r="AK1" s="24"/>
-      <c r="AL1" s="24"/>
-      <c r="AM1" s="24"/>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
-      <c r="AX1" s="24"/>
-      <c r="AY1" s="24"/>
-      <c r="AZ1" s="24"/>
-      <c r="BA1" s="24"/>
-      <c r="BB1" s="24"/>
-      <c r="BC1" s="24"/>
-      <c r="BD1" s="24"/>
-      <c r="BE1" s="24"/>
-      <c r="BF1" s="24"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="24"/>
-      <c r="BI1" s="24"/>
-      <c r="BJ1" s="24"/>
-      <c r="BK1" s="24"/>
-      <c r="BL1" s="24"/>
-      <c r="BM1" s="24"/>
-      <c r="BN1" s="24"/>
-      <c r="BO1" s="24"/>
-      <c r="BP1" s="24"/>
-      <c r="BQ1" s="24"/>
-      <c r="BR1" s="24"/>
-      <c r="BS1" s="24"/>
-      <c r="BT1" s="24"/>
-      <c r="BU1" s="24"/>
-      <c r="BV1" s="24"/>
-      <c r="BW1" s="24"/>
-      <c r="BX1" s="24"/>
-      <c r="BY1" s="24"/>
-      <c r="BZ1" s="24"/>
-      <c r="CA1" s="24"/>
-      <c r="CB1" s="24"/>
-      <c r="CC1" s="24"/>
-      <c r="CD1" s="24"/>
-      <c r="CE1" s="24"/>
-      <c r="CF1" s="24"/>
-      <c r="CG1" s="24"/>
-      <c r="CH1" s="24"/>
-      <c r="CI1" s="24"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
+      <c r="AI1" s="25"/>
+      <c r="AJ1" s="25"/>
+      <c r="AK1" s="25"/>
+      <c r="AL1" s="25"/>
+      <c r="AM1" s="25"/>
+      <c r="AN1" s="25"/>
+      <c r="AO1" s="25"/>
+      <c r="AP1" s="25"/>
+      <c r="AQ1" s="25"/>
+      <c r="AR1" s="25"/>
+      <c r="AS1" s="25"/>
+      <c r="AT1" s="25"/>
+      <c r="AU1" s="25"/>
+      <c r="AV1" s="25"/>
+      <c r="AW1" s="25"/>
+      <c r="AX1" s="25"/>
+      <c r="AY1" s="25"/>
+      <c r="AZ1" s="25"/>
+      <c r="BA1" s="25"/>
+      <c r="BB1" s="25"/>
+      <c r="BC1" s="25"/>
+      <c r="BD1" s="25"/>
+      <c r="BE1" s="25"/>
+      <c r="BF1" s="25"/>
+      <c r="BG1" s="25"/>
+      <c r="BH1" s="25"/>
+      <c r="BI1" s="25"/>
+      <c r="BJ1" s="25"/>
+      <c r="BK1" s="25"/>
+      <c r="BL1" s="25"/>
+      <c r="BM1" s="25"/>
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="25"/>
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25"/>
+      <c r="BR1" s="25"/>
+      <c r="BS1" s="25"/>
+      <c r="BT1" s="25"/>
+      <c r="BU1" s="25"/>
+      <c r="BV1" s="25"/>
+      <c r="BW1" s="25"/>
+      <c r="BX1" s="25"/>
+      <c r="BY1" s="25"/>
+      <c r="BZ1" s="25"/>
+      <c r="CA1" s="25"/>
+      <c r="CB1" s="25"/>
+      <c r="CC1" s="25"/>
+      <c r="CD1" s="25"/>
+      <c r="CE1" s="25"/>
+      <c r="CF1" s="25"/>
+      <c r="CG1" s="25"/>
+      <c r="CH1" s="25"/>
+      <c r="CI1" s="25"/>
     </row>
     <row r="2" spans="2:87" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="27">
         <f>DATE(2018,6,5)</f>
         <v>43256</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="AE2" s="26"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-      <c r="AZ2" s="26"/>
-      <c r="BA2" s="26"/>
-      <c r="BB2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
     </row>
     <row r="3" spans="2:87" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="2:87" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="27" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="25" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="27" t="s">
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="25" t="s">
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
-      <c r="AC4" s="25"/>
-      <c r="AD4" s="25"/>
-      <c r="AE4" s="27" t="s">
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="25" t="s">
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="25"/>
-      <c r="AS4" s="27" t="s">
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AT4" s="27"/>
-      <c r="AU4" s="27"/>
-      <c r="AV4" s="27"/>
-      <c r="AW4" s="27"/>
-      <c r="AX4" s="27"/>
-      <c r="AY4" s="27"/>
-      <c r="AZ4" s="27" t="s">
+      <c r="AT4" s="28"/>
+      <c r="AU4" s="28"/>
+      <c r="AV4" s="28"/>
+      <c r="AW4" s="28"/>
+      <c r="AX4" s="28"/>
+      <c r="AY4" s="28"/>
+      <c r="AZ4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="BA4" s="27"/>
-      <c r="BB4" s="27"/>
-      <c r="BC4" s="27"/>
-      <c r="BD4" s="27"/>
-      <c r="BE4" s="27"/>
-      <c r="BF4" s="27"/>
-      <c r="BG4" s="25" t="s">
+      <c r="BA4" s="28"/>
+      <c r="BB4" s="28"/>
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="28"/>
+      <c r="BF4" s="28"/>
+      <c r="BG4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="BH4" s="25"/>
-      <c r="BI4" s="25"/>
-      <c r="BJ4" s="25"/>
-      <c r="BK4" s="25"/>
-      <c r="BL4" s="25"/>
-      <c r="BM4" s="25"/>
-      <c r="BN4" s="27" t="s">
+      <c r="BH4" s="26"/>
+      <c r="BI4" s="26"/>
+      <c r="BJ4" s="26"/>
+      <c r="BK4" s="26"/>
+      <c r="BL4" s="26"/>
+      <c r="BM4" s="26"/>
+      <c r="BN4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="BO4" s="27"/>
-      <c r="BP4" s="27"/>
-      <c r="BQ4" s="27"/>
-      <c r="BR4" s="27"/>
-      <c r="BS4" s="27"/>
-      <c r="BT4" s="27"/>
-      <c r="BU4" s="25" t="s">
+      <c r="BO4" s="28"/>
+      <c r="BP4" s="28"/>
+      <c r="BQ4" s="28"/>
+      <c r="BR4" s="28"/>
+      <c r="BS4" s="28"/>
+      <c r="BT4" s="28"/>
+      <c r="BU4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="BV4" s="25"/>
-      <c r="BW4" s="25"/>
-      <c r="BX4" s="25"/>
-      <c r="BY4" s="25"/>
-      <c r="BZ4" s="25"/>
-      <c r="CA4" s="25"/>
-      <c r="CB4" s="22" t="s">
+      <c r="BV4" s="26"/>
+      <c r="BW4" s="26"/>
+      <c r="BX4" s="26"/>
+      <c r="BY4" s="26"/>
+      <c r="BZ4" s="26"/>
+      <c r="CA4" s="26"/>
+      <c r="CB4" s="23" t="s">
         <v>8</v>
       </c>
       <c r="CC4" t="s">
@@ -853,949 +871,949 @@
       <c r="CI4"/>
     </row>
     <row r="5" spans="2:87" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="10"/>
-      <c r="C5" s="15" t="str">
+      <c r="B5" s="11"/>
+      <c r="C5" s="16" t="str">
         <f>LOWER(TEXT(C7,"mmm"))</f>
         <v>jun</v>
       </c>
-      <c r="D5" s="15" t="str">
+      <c r="D5" s="16" t="str">
         <f>IF(TEXT(D7,"mmm")=TEXT(C7,"mmm"),"",LOWER(TEXT(D7,"mmm")))</f>
         <v/>
       </c>
-      <c r="E5" s="15" t="str">
+      <c r="E5" s="16" t="str">
         <f t="shared" ref="E5:AD5" si="0">IF(TEXT(E7,"mmm")=TEXT(D7,"mmm"),"",LOWER(TEXT(E7,"mmm")))</f>
         <v/>
       </c>
-      <c r="F5" s="15" t="str">
+      <c r="F5" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G5" s="15" t="str">
+      <c r="G5" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H5" s="15" t="str">
+      <c r="H5" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I5" s="15" t="str">
+      <c r="I5" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J5" s="16" t="str">
+      <c r="J5" s="17" t="str">
         <f>LOWER(TEXT(J7,"mmm"))</f>
         <v>jun</v>
       </c>
-      <c r="K5" s="16" t="str">
+      <c r="K5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L5" s="16" t="str">
+      <c r="L5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M5" s="16" t="str">
+      <c r="M5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N5" s="16" t="str">
+      <c r="N5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O5" s="16" t="str">
+      <c r="O5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P5" s="16" t="str">
+      <c r="P5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q5" s="15" t="str">
+      <c r="Q5" s="16" t="str">
         <f>LOWER(TEXT(Q7,"mmm"))</f>
         <v>jun</v>
       </c>
-      <c r="R5" s="15" t="str">
+      <c r="R5" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S5" s="15" t="str">
+      <c r="S5" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T5" s="15" t="str">
+      <c r="T5" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U5" s="15" t="str">
+      <c r="U5" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V5" s="15" t="str">
+      <c r="V5" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W5" s="15" t="str">
+      <c r="W5" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="X5" s="16" t="str">
+      <c r="X5" s="17" t="str">
         <f>LOWER(TEXT(X7,"mmm"))</f>
         <v>jun</v>
       </c>
-      <c r="Y5" s="16" t="str">
+      <c r="Y5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Z5" s="16" t="str">
+      <c r="Z5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA5" s="16" t="str">
+      <c r="AA5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB5" s="16" t="str">
+      <c r="AB5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC5" s="16" t="str">
+      <c r="AC5" s="17" t="str">
         <f t="shared" si="0"/>
         <v>jul</v>
       </c>
-      <c r="AD5" s="16" t="str">
+      <c r="AD5" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE5" s="15" t="str">
+      <c r="AE5" s="16" t="str">
         <f>LOWER(TEXT(AE7,"mmm"))</f>
         <v>jul</v>
       </c>
-      <c r="AF5" s="15" t="str">
+      <c r="AF5" s="16" t="str">
         <f>IF(TEXT(AF7,"mmm")=TEXT(AE7,"mmm"),"",LOWER(TEXT(AF7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AG5" s="15" t="str">
+      <c r="AG5" s="16" t="str">
         <f t="shared" ref="AG5" si="1">IF(TEXT(AG7,"mmm")=TEXT(AF7,"mmm"),"",LOWER(TEXT(AG7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AH5" s="15" t="str">
+      <c r="AH5" s="16" t="str">
         <f t="shared" ref="AH5" si="2">IF(TEXT(AH7,"mmm")=TEXT(AG7,"mmm"),"",LOWER(TEXT(AH7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AI5" s="15" t="str">
+      <c r="AI5" s="16" t="str">
         <f t="shared" ref="AI5" si="3">IF(TEXT(AI7,"mmm")=TEXT(AH7,"mmm"),"",LOWER(TEXT(AI7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AJ5" s="15" t="str">
+      <c r="AJ5" s="16" t="str">
         <f t="shared" ref="AJ5" si="4">IF(TEXT(AJ7,"mmm")=TEXT(AI7,"mmm"),"",LOWER(TEXT(AJ7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AK5" s="15" t="str">
+      <c r="AK5" s="16" t="str">
         <f t="shared" ref="AK5" si="5">IF(TEXT(AK7,"mmm")=TEXT(AJ7,"mmm"),"",LOWER(TEXT(AK7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AL5" s="16" t="str">
+      <c r="AL5" s="17" t="str">
         <f>LOWER(TEXT(AL7,"mmm"))</f>
         <v>jul</v>
       </c>
-      <c r="AM5" s="16" t="str">
+      <c r="AM5" s="17" t="str">
         <f t="shared" ref="AM5" si="6">IF(TEXT(AM7,"mmm")=TEXT(AL7,"mmm"),"",LOWER(TEXT(AM7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AN5" s="16" t="str">
+      <c r="AN5" s="17" t="str">
         <f t="shared" ref="AN5" si="7">IF(TEXT(AN7,"mmm")=TEXT(AM7,"mmm"),"",LOWER(TEXT(AN7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AO5" s="16" t="str">
+      <c r="AO5" s="17" t="str">
         <f t="shared" ref="AO5" si="8">IF(TEXT(AO7,"mmm")=TEXT(AN7,"mmm"),"",LOWER(TEXT(AO7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AP5" s="16" t="str">
+      <c r="AP5" s="17" t="str">
         <f t="shared" ref="AP5" si="9">IF(TEXT(AP7,"mmm")=TEXT(AO7,"mmm"),"",LOWER(TEXT(AP7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AQ5" s="16" t="str">
+      <c r="AQ5" s="17" t="str">
         <f t="shared" ref="AQ5" si="10">IF(TEXT(AQ7,"mmm")=TEXT(AP7,"mmm"),"",LOWER(TEXT(AQ7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AR5" s="16" t="str">
+      <c r="AR5" s="17" t="str">
         <f t="shared" ref="AR5" si="11">IF(TEXT(AR7,"mmm")=TEXT(AQ7,"mmm"),"",LOWER(TEXT(AR7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AS5" s="15" t="str">
+      <c r="AS5" s="16" t="str">
         <f>LOWER(TEXT(AS7,"mmm"))</f>
         <v>jul</v>
       </c>
-      <c r="AT5" s="15" t="str">
+      <c r="AT5" s="16" t="str">
         <f t="shared" ref="AT5" si="12">IF(TEXT(AT7,"mmm")=TEXT(AS7,"mmm"),"",LOWER(TEXT(AT7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AU5" s="15" t="str">
+      <c r="AU5" s="16" t="str">
         <f t="shared" ref="AU5" si="13">IF(TEXT(AU7,"mmm")=TEXT(AT7,"mmm"),"",LOWER(TEXT(AU7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AV5" s="15" t="str">
+      <c r="AV5" s="16" t="str">
         <f t="shared" ref="AV5" si="14">IF(TEXT(AV7,"mmm")=TEXT(AU7,"mmm"),"",LOWER(TEXT(AV7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AW5" s="15" t="str">
+      <c r="AW5" s="16" t="str">
         <f t="shared" ref="AW5" si="15">IF(TEXT(AW7,"mmm")=TEXT(AV7,"mmm"),"",LOWER(TEXT(AW7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AX5" s="15" t="str">
+      <c r="AX5" s="16" t="str">
         <f t="shared" ref="AX5" si="16">IF(TEXT(AX7,"mmm")=TEXT(AW7,"mmm"),"",LOWER(TEXT(AX7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AY5" s="15" t="str">
+      <c r="AY5" s="16" t="str">
         <f t="shared" ref="AY5" si="17">IF(TEXT(AY7,"mmm")=TEXT(AX7,"mmm"),"",LOWER(TEXT(AY7,"mmm")))</f>
         <v/>
       </c>
-      <c r="AZ5" s="15" t="str">
+      <c r="AZ5" s="16" t="str">
         <f>LOWER(TEXT(AZ7,"mmm"))</f>
         <v>jul</v>
       </c>
-      <c r="BA5" s="15" t="str">
+      <c r="BA5" s="16" t="str">
         <f>IF(TEXT(BA7,"mmm")=TEXT(AZ7,"mmm"),"",LOWER(TEXT(BA7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BB5" s="15" t="str">
+      <c r="BB5" s="16" t="str">
         <f t="shared" ref="BB5" si="18">IF(TEXT(BB7,"mmm")=TEXT(BA7,"mmm"),"",LOWER(TEXT(BB7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BC5" s="15" t="str">
+      <c r="BC5" s="16" t="str">
         <f t="shared" ref="BC5" si="19">IF(TEXT(BC7,"mmm")=TEXT(BB7,"mmm"),"",LOWER(TEXT(BC7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BD5" s="15" t="str">
+      <c r="BD5" s="16" t="str">
         <f t="shared" ref="BD5" si="20">IF(TEXT(BD7,"mmm")=TEXT(BC7,"mmm"),"",LOWER(TEXT(BD7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BE5" s="15" t="str">
+      <c r="BE5" s="16" t="str">
         <f t="shared" ref="BE5" si="21">IF(TEXT(BE7,"mmm")=TEXT(BD7,"mmm"),"",LOWER(TEXT(BE7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BF5" s="15" t="str">
+      <c r="BF5" s="16" t="str">
         <f t="shared" ref="BF5" si="22">IF(TEXT(BF7,"mmm")=TEXT(BE7,"mmm"),"",LOWER(TEXT(BF7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BG5" s="16" t="str">
+      <c r="BG5" s="17" t="str">
         <f>LOWER(TEXT(BG7,"mmm"))</f>
         <v>jul</v>
       </c>
-      <c r="BH5" s="16" t="str">
+      <c r="BH5" s="17" t="str">
         <f t="shared" ref="BH5" si="23">IF(TEXT(BH7,"mmm")=TEXT(BG7,"mmm"),"",LOWER(TEXT(BH7,"mmm")))</f>
         <v>aug</v>
       </c>
-      <c r="BI5" s="16" t="str">
+      <c r="BI5" s="17" t="str">
         <f t="shared" ref="BI5" si="24">IF(TEXT(BI7,"mmm")=TEXT(BH7,"mmm"),"",LOWER(TEXT(BI7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BJ5" s="16" t="str">
+      <c r="BJ5" s="17" t="str">
         <f t="shared" ref="BJ5" si="25">IF(TEXT(BJ7,"mmm")=TEXT(BI7,"mmm"),"",LOWER(TEXT(BJ7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BK5" s="16" t="str">
+      <c r="BK5" s="17" t="str">
         <f t="shared" ref="BK5" si="26">IF(TEXT(BK7,"mmm")=TEXT(BJ7,"mmm"),"",LOWER(TEXT(BK7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BL5" s="16" t="str">
+      <c r="BL5" s="17" t="str">
         <f t="shared" ref="BL5" si="27">IF(TEXT(BL7,"mmm")=TEXT(BK7,"mmm"),"",LOWER(TEXT(BL7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BM5" s="16" t="str">
+      <c r="BM5" s="17" t="str">
         <f t="shared" ref="BM5" si="28">IF(TEXT(BM7,"mmm")=TEXT(BL7,"mmm"),"",LOWER(TEXT(BM7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BN5" s="15" t="str">
+      <c r="BN5" s="16" t="str">
         <f>LOWER(TEXT(BN7,"mmm"))</f>
         <v>aug</v>
       </c>
-      <c r="BO5" s="15" t="str">
+      <c r="BO5" s="16" t="str">
         <f t="shared" ref="BO5" si="29">IF(TEXT(BO7,"mmm")=TEXT(BN7,"mmm"),"",LOWER(TEXT(BO7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BP5" s="15" t="str">
+      <c r="BP5" s="16" t="str">
         <f t="shared" ref="BP5" si="30">IF(TEXT(BP7,"mmm")=TEXT(BO7,"mmm"),"",LOWER(TEXT(BP7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BQ5" s="15" t="str">
+      <c r="BQ5" s="16" t="str">
         <f t="shared" ref="BQ5" si="31">IF(TEXT(BQ7,"mmm")=TEXT(BP7,"mmm"),"",LOWER(TEXT(BQ7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BR5" s="15" t="str">
+      <c r="BR5" s="16" t="str">
         <f t="shared" ref="BR5" si="32">IF(TEXT(BR7,"mmm")=TEXT(BQ7,"mmm"),"",LOWER(TEXT(BR7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BS5" s="15" t="str">
+      <c r="BS5" s="16" t="str">
         <f t="shared" ref="BS5" si="33">IF(TEXT(BS7,"mmm")=TEXT(BR7,"mmm"),"",LOWER(TEXT(BS7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BT5" s="15" t="str">
+      <c r="BT5" s="16" t="str">
         <f t="shared" ref="BT5" si="34">IF(TEXT(BT7,"mmm")=TEXT(BS7,"mmm"),"",LOWER(TEXT(BT7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BU5" s="16" t="str">
+      <c r="BU5" s="17" t="str">
         <f>LOWER(TEXT(BU7,"mmm"))</f>
         <v>aug</v>
       </c>
-      <c r="BV5" s="16" t="str">
+      <c r="BV5" s="17" t="str">
         <f t="shared" ref="BV5" si="35">IF(TEXT(BV7,"mmm")=TEXT(BU7,"mmm"),"",LOWER(TEXT(BV7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BW5" s="16" t="str">
+      <c r="BW5" s="17" t="str">
         <f t="shared" ref="BW5" si="36">IF(TEXT(BW7,"mmm")=TEXT(BV7,"mmm"),"",LOWER(TEXT(BW7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BX5" s="16" t="str">
+      <c r="BX5" s="17" t="str">
         <f t="shared" ref="BX5" si="37">IF(TEXT(BX7,"mmm")=TEXT(BW7,"mmm"),"",LOWER(TEXT(BX7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BY5" s="16" t="str">
+      <c r="BY5" s="17" t="str">
         <f t="shared" ref="BY5" si="38">IF(TEXT(BY7,"mmm")=TEXT(BX7,"mmm"),"",LOWER(TEXT(BY7,"mmm")))</f>
         <v/>
       </c>
-      <c r="BZ5" s="16" t="str">
+      <c r="BZ5" s="17" t="str">
         <f t="shared" ref="BZ5" si="39">IF(TEXT(BZ7,"mmm")=TEXT(BY7,"mmm"),"",LOWER(TEXT(BZ7,"mmm")))</f>
         <v/>
       </c>
-      <c r="CA5" s="16" t="str">
+      <c r="CA5" s="17" t="str">
         <f t="shared" ref="CA5" si="40">IF(TEXT(CA7,"mmm")=TEXT(BZ7,"mmm"),"",LOWER(TEXT(CA7,"mmm")))</f>
         <v/>
       </c>
-      <c r="CB5" s="22"/>
+      <c r="CB5" s="23"/>
       <c r="CC5" t="s">
         <v>5</v>
       </c>
       <c r="CI5"/>
     </row>
     <row r="6" spans="2:87" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="10"/>
-      <c r="C6" s="13" t="str">
+      <c r="B6" s="11"/>
+      <c r="C6" s="14" t="str">
         <f>LOWER(TEXT(C7,"aaa"))</f>
         <v>tue</v>
       </c>
-      <c r="D6" s="13" t="str">
+      <c r="D6" s="14" t="str">
         <f t="shared" ref="D6:BO6" si="41">LOWER(TEXT(D7,"aaa"))</f>
         <v>wed</v>
       </c>
-      <c r="E6" s="13" t="str">
+      <c r="E6" s="14" t="str">
         <f t="shared" si="41"/>
         <v>thu</v>
       </c>
-      <c r="F6" s="13" t="str">
+      <c r="F6" s="14" t="str">
         <f t="shared" si="41"/>
         <v>fri</v>
       </c>
-      <c r="G6" s="13" t="str">
+      <c r="G6" s="14" t="str">
         <f t="shared" si="41"/>
         <v>sat</v>
       </c>
-      <c r="H6" s="13" t="str">
+      <c r="H6" s="14" t="str">
         <f t="shared" si="41"/>
         <v>sun</v>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="14" t="str">
         <f t="shared" si="41"/>
         <v>mon</v>
       </c>
-      <c r="J6" s="17" t="str">
+      <c r="J6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>tue</v>
       </c>
-      <c r="K6" s="17" t="str">
+      <c r="K6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>wed</v>
       </c>
-      <c r="L6" s="17" t="str">
+      <c r="L6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>thu</v>
       </c>
-      <c r="M6" s="17" t="str">
+      <c r="M6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>fri</v>
       </c>
-      <c r="N6" s="17" t="str">
+      <c r="N6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sat</v>
       </c>
-      <c r="O6" s="17" t="str">
+      <c r="O6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sun</v>
       </c>
-      <c r="P6" s="17" t="str">
+      <c r="P6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>mon</v>
       </c>
-      <c r="Q6" s="13" t="str">
+      <c r="Q6" s="14" t="str">
         <f t="shared" si="41"/>
         <v>tue</v>
       </c>
-      <c r="R6" s="13" t="str">
+      <c r="R6" s="14" t="str">
         <f t="shared" si="41"/>
         <v>wed</v>
       </c>
-      <c r="S6" s="13" t="str">
+      <c r="S6" s="14" t="str">
         <f t="shared" si="41"/>
         <v>thu</v>
       </c>
-      <c r="T6" s="13" t="str">
+      <c r="T6" s="14" t="str">
         <f t="shared" si="41"/>
         <v>fri</v>
       </c>
-      <c r="U6" s="13" t="str">
+      <c r="U6" s="14" t="str">
         <f t="shared" si="41"/>
         <v>sat</v>
       </c>
-      <c r="V6" s="13" t="str">
+      <c r="V6" s="14" t="str">
         <f t="shared" si="41"/>
         <v>sun</v>
       </c>
-      <c r="W6" s="13" t="str">
+      <c r="W6" s="14" t="str">
         <f t="shared" si="41"/>
         <v>mon</v>
       </c>
-      <c r="X6" s="17" t="str">
+      <c r="X6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>tue</v>
       </c>
-      <c r="Y6" s="17" t="str">
+      <c r="Y6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>wed</v>
       </c>
-      <c r="Z6" s="17" t="str">
+      <c r="Z6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>thu</v>
       </c>
-      <c r="AA6" s="17" t="str">
+      <c r="AA6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>fri</v>
       </c>
-      <c r="AB6" s="17" t="str">
+      <c r="AB6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sat</v>
       </c>
-      <c r="AC6" s="17" t="str">
+      <c r="AC6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sun</v>
       </c>
-      <c r="AD6" s="17" t="str">
+      <c r="AD6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>mon</v>
       </c>
-      <c r="AE6" s="17" t="str">
+      <c r="AE6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>tue</v>
       </c>
-      <c r="AF6" s="17" t="str">
+      <c r="AF6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>wed</v>
       </c>
-      <c r="AG6" s="17" t="str">
+      <c r="AG6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>thu</v>
       </c>
-      <c r="AH6" s="17" t="str">
+      <c r="AH6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>fri</v>
       </c>
-      <c r="AI6" s="17" t="str">
+      <c r="AI6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sat</v>
       </c>
-      <c r="AJ6" s="17" t="str">
+      <c r="AJ6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sun</v>
       </c>
-      <c r="AK6" s="17" t="str">
+      <c r="AK6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>mon</v>
       </c>
-      <c r="AL6" s="17" t="str">
+      <c r="AL6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>tue</v>
       </c>
-      <c r="AM6" s="17" t="str">
+      <c r="AM6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>wed</v>
       </c>
-      <c r="AN6" s="17" t="str">
+      <c r="AN6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>thu</v>
       </c>
-      <c r="AO6" s="17" t="str">
+      <c r="AO6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>fri</v>
       </c>
-      <c r="AP6" s="17" t="str">
+      <c r="AP6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sat</v>
       </c>
-      <c r="AQ6" s="17" t="str">
+      <c r="AQ6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sun</v>
       </c>
-      <c r="AR6" s="17" t="str">
+      <c r="AR6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>mon</v>
       </c>
-      <c r="AS6" s="17" t="str">
+      <c r="AS6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>tue</v>
       </c>
-      <c r="AT6" s="17" t="str">
+      <c r="AT6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>wed</v>
       </c>
-      <c r="AU6" s="17" t="str">
+      <c r="AU6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>thu</v>
       </c>
-      <c r="AV6" s="17" t="str">
+      <c r="AV6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>fri</v>
       </c>
-      <c r="AW6" s="17" t="str">
+      <c r="AW6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sat</v>
       </c>
-      <c r="AX6" s="17" t="str">
+      <c r="AX6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sun</v>
       </c>
-      <c r="AY6" s="17" t="str">
+      <c r="AY6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>mon</v>
       </c>
-      <c r="AZ6" s="17" t="str">
+      <c r="AZ6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>tue</v>
       </c>
-      <c r="BA6" s="17" t="str">
+      <c r="BA6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>wed</v>
       </c>
-      <c r="BB6" s="17" t="str">
+      <c r="BB6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>thu</v>
       </c>
-      <c r="BC6" s="17" t="str">
+      <c r="BC6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>fri</v>
       </c>
-      <c r="BD6" s="17" t="str">
+      <c r="BD6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sat</v>
       </c>
-      <c r="BE6" s="17" t="str">
+      <c r="BE6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sun</v>
       </c>
-      <c r="BF6" s="17" t="str">
+      <c r="BF6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>mon</v>
       </c>
-      <c r="BG6" s="17" t="str">
+      <c r="BG6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>tue</v>
       </c>
-      <c r="BH6" s="17" t="str">
+      <c r="BH6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>wed</v>
       </c>
-      <c r="BI6" s="17" t="str">
+      <c r="BI6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>thu</v>
       </c>
-      <c r="BJ6" s="17" t="str">
+      <c r="BJ6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>fri</v>
       </c>
-      <c r="BK6" s="17" t="str">
+      <c r="BK6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sat</v>
       </c>
-      <c r="BL6" s="17" t="str">
+      <c r="BL6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>sun</v>
       </c>
-      <c r="BM6" s="17" t="str">
+      <c r="BM6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>mon</v>
       </c>
-      <c r="BN6" s="17" t="str">
+      <c r="BN6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>tue</v>
       </c>
-      <c r="BO6" s="17" t="str">
+      <c r="BO6" s="18" t="str">
         <f t="shared" si="41"/>
         <v>wed</v>
       </c>
-      <c r="BP6" s="17" t="str">
+      <c r="BP6" s="18" t="str">
         <f t="shared" ref="BP6:CA6" si="42">LOWER(TEXT(BP7,"aaa"))</f>
         <v>thu</v>
       </c>
-      <c r="BQ6" s="17" t="str">
+      <c r="BQ6" s="18" t="str">
         <f t="shared" si="42"/>
         <v>fri</v>
       </c>
-      <c r="BR6" s="17" t="str">
+      <c r="BR6" s="18" t="str">
         <f t="shared" si="42"/>
         <v>sat</v>
       </c>
-      <c r="BS6" s="17" t="str">
+      <c r="BS6" s="18" t="str">
         <f t="shared" si="42"/>
         <v>sun</v>
       </c>
-      <c r="BT6" s="17" t="str">
+      <c r="BT6" s="18" t="str">
         <f t="shared" si="42"/>
         <v>mon</v>
       </c>
-      <c r="BU6" s="17" t="str">
+      <c r="BU6" s="18" t="str">
         <f t="shared" si="42"/>
         <v>tue</v>
       </c>
-      <c r="BV6" s="17" t="str">
+      <c r="BV6" s="18" t="str">
         <f t="shared" si="42"/>
         <v>wed</v>
       </c>
-      <c r="BW6" s="17" t="str">
+      <c r="BW6" s="18" t="str">
         <f t="shared" si="42"/>
         <v>thu</v>
       </c>
-      <c r="BX6" s="17" t="str">
+      <c r="BX6" s="18" t="str">
         <f t="shared" si="42"/>
         <v>fri</v>
       </c>
-      <c r="BY6" s="17" t="str">
+      <c r="BY6" s="18" t="str">
         <f t="shared" si="42"/>
         <v>sat</v>
       </c>
-      <c r="BZ6" s="17" t="str">
+      <c r="BZ6" s="18" t="str">
         <f t="shared" si="42"/>
         <v>sun</v>
       </c>
-      <c r="CA6" s="17" t="str">
+      <c r="CA6" s="18" t="str">
         <f t="shared" si="42"/>
         <v>mon</v>
       </c>
-      <c r="CB6" s="22"/>
+      <c r="CB6" s="23"/>
       <c r="CI6"/>
     </row>
     <row r="7" spans="2:87" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="14">
+      <c r="B7" s="12"/>
+      <c r="C7" s="15">
         <f>C2</f>
         <v>43256</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="15">
         <f>C7+1</f>
         <v>43257</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="15">
         <f t="shared" ref="E7:Q7" si="43">D7+1</f>
         <v>43258</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="15">
         <f t="shared" si="43"/>
         <v>43259</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="15">
         <f t="shared" si="43"/>
         <v>43260</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="15">
         <f t="shared" si="43"/>
         <v>43261</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="15">
         <f t="shared" si="43"/>
         <v>43262</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="19">
         <f t="shared" si="43"/>
         <v>43263</v>
       </c>
-      <c r="K7" s="18">
+      <c r="K7" s="19">
         <f t="shared" si="43"/>
         <v>43264</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="19">
         <f t="shared" si="43"/>
         <v>43265</v>
       </c>
-      <c r="M7" s="18">
+      <c r="M7" s="19">
         <f t="shared" si="43"/>
         <v>43266</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="19">
         <f t="shared" si="43"/>
         <v>43267</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="19">
         <f t="shared" si="43"/>
         <v>43268</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="19">
         <f t="shared" si="43"/>
         <v>43269</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="15">
         <f t="shared" si="43"/>
         <v>43270</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="15">
         <f t="shared" ref="R7:X7" si="44">Q7+1</f>
         <v>43271</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="15">
         <f t="shared" si="44"/>
         <v>43272</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="15">
         <f t="shared" si="44"/>
         <v>43273</v>
       </c>
-      <c r="U7" s="14">
+      <c r="U7" s="15">
         <f t="shared" si="44"/>
         <v>43274</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="15">
         <f t="shared" si="44"/>
         <v>43275</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="15">
         <f t="shared" si="44"/>
         <v>43276</v>
       </c>
-      <c r="X7" s="18">
+      <c r="X7" s="19">
         <f t="shared" si="44"/>
         <v>43277</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Y7" s="19">
         <f t="shared" ref="Y7:AC7" si="45">X7+1</f>
         <v>43278</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="Z7" s="19">
         <f t="shared" si="45"/>
         <v>43279</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AA7" s="19">
         <f t="shared" si="45"/>
         <v>43280</v>
       </c>
-      <c r="AB7" s="18">
+      <c r="AB7" s="19">
         <f t="shared" si="45"/>
         <v>43281</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AC7" s="19">
         <f t="shared" si="45"/>
         <v>43282</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="19">
         <f t="shared" ref="AD7" si="46">AC7+1</f>
         <v>43283</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AE7" s="19">
         <f t="shared" ref="AE7" si="47">AD7+1</f>
         <v>43284</v>
       </c>
-      <c r="AF7" s="18">
+      <c r="AF7" s="19">
         <f t="shared" ref="AF7" si="48">AE7+1</f>
         <v>43285</v>
       </c>
-      <c r="AG7" s="18">
+      <c r="AG7" s="19">
         <f t="shared" ref="AG7" si="49">AF7+1</f>
         <v>43286</v>
       </c>
-      <c r="AH7" s="18">
+      <c r="AH7" s="19">
         <f t="shared" ref="AH7" si="50">AG7+1</f>
         <v>43287</v>
       </c>
-      <c r="AI7" s="18">
+      <c r="AI7" s="19">
         <f t="shared" ref="AI7" si="51">AH7+1</f>
         <v>43288</v>
       </c>
-      <c r="AJ7" s="18">
+      <c r="AJ7" s="19">
         <f t="shared" ref="AJ7" si="52">AI7+1</f>
         <v>43289</v>
       </c>
-      <c r="AK7" s="18">
+      <c r="AK7" s="19">
         <f t="shared" ref="AK7" si="53">AJ7+1</f>
         <v>43290</v>
       </c>
-      <c r="AL7" s="18">
+      <c r="AL7" s="19">
         <f t="shared" ref="AL7" si="54">AK7+1</f>
         <v>43291</v>
       </c>
-      <c r="AM7" s="18">
+      <c r="AM7" s="19">
         <f t="shared" ref="AM7" si="55">AL7+1</f>
         <v>43292</v>
       </c>
-      <c r="AN7" s="18">
+      <c r="AN7" s="19">
         <f t="shared" ref="AN7" si="56">AM7+1</f>
         <v>43293</v>
       </c>
-      <c r="AO7" s="18">
+      <c r="AO7" s="19">
         <f t="shared" ref="AO7" si="57">AN7+1</f>
         <v>43294</v>
       </c>
-      <c r="AP7" s="18">
+      <c r="AP7" s="19">
         <f t="shared" ref="AP7" si="58">AO7+1</f>
         <v>43295</v>
       </c>
-      <c r="AQ7" s="18">
+      <c r="AQ7" s="19">
         <f t="shared" ref="AQ7" si="59">AP7+1</f>
         <v>43296</v>
       </c>
-      <c r="AR7" s="18">
+      <c r="AR7" s="19">
         <f t="shared" ref="AR7" si="60">AQ7+1</f>
         <v>43297</v>
       </c>
-      <c r="AS7" s="18">
+      <c r="AS7" s="19">
         <f t="shared" ref="AS7" si="61">AR7+1</f>
         <v>43298</v>
       </c>
-      <c r="AT7" s="18">
+      <c r="AT7" s="19">
         <f t="shared" ref="AT7" si="62">AS7+1</f>
         <v>43299</v>
       </c>
-      <c r="AU7" s="18">
+      <c r="AU7" s="19">
         <f t="shared" ref="AU7" si="63">AT7+1</f>
         <v>43300</v>
       </c>
-      <c r="AV7" s="18">
+      <c r="AV7" s="19">
         <f t="shared" ref="AV7" si="64">AU7+1</f>
         <v>43301</v>
       </c>
-      <c r="AW7" s="18">
+      <c r="AW7" s="19">
         <f t="shared" ref="AW7" si="65">AV7+1</f>
         <v>43302</v>
       </c>
-      <c r="AX7" s="18">
+      <c r="AX7" s="19">
         <f t="shared" ref="AX7" si="66">AW7+1</f>
         <v>43303</v>
       </c>
-      <c r="AY7" s="18">
+      <c r="AY7" s="19">
         <f t="shared" ref="AY7" si="67">AX7+1</f>
         <v>43304</v>
       </c>
-      <c r="AZ7" s="18">
+      <c r="AZ7" s="19">
         <f t="shared" ref="AZ7" si="68">AY7+1</f>
         <v>43305</v>
       </c>
-      <c r="BA7" s="18">
+      <c r="BA7" s="19">
         <f t="shared" ref="BA7" si="69">AZ7+1</f>
         <v>43306</v>
       </c>
-      <c r="BB7" s="18">
+      <c r="BB7" s="19">
         <f t="shared" ref="BB7" si="70">BA7+1</f>
         <v>43307</v>
       </c>
-      <c r="BC7" s="18">
+      <c r="BC7" s="19">
         <f t="shared" ref="BC7" si="71">BB7+1</f>
         <v>43308</v>
       </c>
-      <c r="BD7" s="18">
+      <c r="BD7" s="19">
         <f t="shared" ref="BD7" si="72">BC7+1</f>
         <v>43309</v>
       </c>
-      <c r="BE7" s="18">
+      <c r="BE7" s="19">
         <f t="shared" ref="BE7" si="73">BD7+1</f>
         <v>43310</v>
       </c>
-      <c r="BF7" s="18">
+      <c r="BF7" s="19">
         <f t="shared" ref="BF7" si="74">BE7+1</f>
         <v>43311</v>
       </c>
-      <c r="BG7" s="18">
+      <c r="BG7" s="19">
         <f t="shared" ref="BG7" si="75">BF7+1</f>
         <v>43312</v>
       </c>
-      <c r="BH7" s="18">
+      <c r="BH7" s="19">
         <f t="shared" ref="BH7" si="76">BG7+1</f>
         <v>43313</v>
       </c>
-      <c r="BI7" s="18">
+      <c r="BI7" s="19">
         <f t="shared" ref="BI7" si="77">BH7+1</f>
         <v>43314</v>
       </c>
-      <c r="BJ7" s="18">
+      <c r="BJ7" s="19">
         <f t="shared" ref="BJ7" si="78">BI7+1</f>
         <v>43315</v>
       </c>
-      <c r="BK7" s="18">
+      <c r="BK7" s="19">
         <f t="shared" ref="BK7" si="79">BJ7+1</f>
         <v>43316</v>
       </c>
-      <c r="BL7" s="18">
+      <c r="BL7" s="19">
         <f t="shared" ref="BL7" si="80">BK7+1</f>
         <v>43317</v>
       </c>
-      <c r="BM7" s="18">
+      <c r="BM7" s="19">
         <f t="shared" ref="BM7" si="81">BL7+1</f>
         <v>43318</v>
       </c>
-      <c r="BN7" s="18">
+      <c r="BN7" s="19">
         <f t="shared" ref="BN7" si="82">BM7+1</f>
         <v>43319</v>
       </c>
-      <c r="BO7" s="18">
+      <c r="BO7" s="19">
         <f t="shared" ref="BO7" si="83">BN7+1</f>
         <v>43320</v>
       </c>
-      <c r="BP7" s="18">
+      <c r="BP7" s="19">
         <f t="shared" ref="BP7" si="84">BO7+1</f>
         <v>43321</v>
       </c>
-      <c r="BQ7" s="18">
+      <c r="BQ7" s="19">
         <f t="shared" ref="BQ7" si="85">BP7+1</f>
         <v>43322</v>
       </c>
-      <c r="BR7" s="18">
+      <c r="BR7" s="19">
         <f t="shared" ref="BR7" si="86">BQ7+1</f>
         <v>43323</v>
       </c>
-      <c r="BS7" s="18">
+      <c r="BS7" s="19">
         <f t="shared" ref="BS7" si="87">BR7+1</f>
         <v>43324</v>
       </c>
-      <c r="BT7" s="18">
+      <c r="BT7" s="19">
         <f t="shared" ref="BT7" si="88">BS7+1</f>
         <v>43325</v>
       </c>
-      <c r="BU7" s="18">
+      <c r="BU7" s="19">
         <f t="shared" ref="BU7" si="89">BT7+1</f>
         <v>43326</v>
       </c>
-      <c r="BV7" s="18">
+      <c r="BV7" s="19">
         <f t="shared" ref="BV7" si="90">BU7+1</f>
         <v>43327</v>
       </c>
-      <c r="BW7" s="18">
+      <c r="BW7" s="19">
         <f t="shared" ref="BW7" si="91">BV7+1</f>
         <v>43328</v>
       </c>
-      <c r="BX7" s="18">
+      <c r="BX7" s="19">
         <f t="shared" ref="BX7" si="92">BW7+1</f>
         <v>43329</v>
       </c>
-      <c r="BY7" s="18">
+      <c r="BY7" s="19">
         <f t="shared" ref="BY7" si="93">BX7+1</f>
         <v>43330</v>
       </c>
-      <c r="BZ7" s="18">
+      <c r="BZ7" s="19">
         <f t="shared" ref="BZ7" si="94">BY7+1</f>
         <v>43331</v>
       </c>
-      <c r="CA7" s="18">
+      <c r="CA7" s="19">
         <f t="shared" ref="CA7" si="95">BZ7+1</f>
         <v>43332</v>
       </c>
-      <c r="CB7" s="23"/>
+      <c r="CB7" s="24"/>
       <c r="CI7"/>
     </row>
     <row r="8" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="20"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
@@ -1875,21 +1893,23 @@
       <c r="BY8" s="7"/>
       <c r="BZ8" s="6"/>
       <c r="CA8" s="7"/>
-      <c r="CB8" s="21" t="s">
-        <v>6</v>
+      <c r="CB8" s="29" t="s">
+        <v>19</v>
       </c>
       <c r="CI8"/>
     </row>
     <row r="9" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="20"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="6"/>
       <c r="L9" s="7"/>
       <c r="M9" s="6"/>
@@ -1959,13 +1979,13 @@
       <c r="BY9" s="7"/>
       <c r="BZ9" s="6"/>
       <c r="CA9" s="7"/>
-      <c r="CB9" s="21" t="s">
-        <v>7</v>
+      <c r="CB9" s="29" t="s">
+        <v>6</v>
       </c>
       <c r="CI9"/>
     </row>
     <row r="10" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="20"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
       <c r="E10" s="6"/>
@@ -2043,13 +2063,13 @@
       <c r="BY10" s="7"/>
       <c r="BZ10" s="6"/>
       <c r="CA10" s="7"/>
-      <c r="CB10" s="21" t="s">
+      <c r="CB10" s="22" t="s">
         <v>7</v>
       </c>
       <c r="CI10"/>
     </row>
     <row r="11" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="20"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
       <c r="E11" s="6"/>
@@ -2127,13 +2147,13 @@
       <c r="BY11" s="7"/>
       <c r="BZ11" s="6"/>
       <c r="CA11" s="7"/>
-      <c r="CB11" s="21" t="s">
+      <c r="CB11" s="22" t="s">
         <v>7</v>
       </c>
       <c r="CI11"/>
     </row>
     <row r="12" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="20"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="6"/>
@@ -2211,13 +2231,13 @@
       <c r="BY12" s="7"/>
       <c r="BZ12" s="6"/>
       <c r="CA12" s="7"/>
-      <c r="CB12" s="21" t="s">
+      <c r="CB12" s="22" t="s">
         <v>7</v>
       </c>
       <c r="CI12"/>
     </row>
     <row r="13" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="19"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="6"/>
@@ -2295,13 +2315,13 @@
       <c r="BY13" s="7"/>
       <c r="BZ13" s="6"/>
       <c r="CA13" s="7"/>
-      <c r="CB13" s="21" t="s">
+      <c r="CB13" s="22" t="s">
         <v>7</v>
       </c>
       <c r="CI13"/>
     </row>
     <row r="14" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="6"/>
@@ -2379,13 +2399,13 @@
       <c r="BY14" s="7"/>
       <c r="BZ14" s="6"/>
       <c r="CA14" s="7"/>
-      <c r="CB14" s="21" t="s">
+      <c r="CB14" s="22" t="s">
         <v>7</v>
       </c>
       <c r="CI14"/>
     </row>
     <row r="15" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="19"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="6"/>
@@ -2463,13 +2483,13 @@
       <c r="BY15" s="7"/>
       <c r="BZ15" s="6"/>
       <c r="CA15" s="7"/>
-      <c r="CB15" s="21" t="s">
+      <c r="CB15" s="22" t="s">
         <v>7</v>
       </c>
       <c r="CI15"/>
     </row>
     <row r="16" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="6"/>
       <c r="D16" s="7"/>
       <c r="E16" s="6"/>
@@ -2547,13 +2567,13 @@
       <c r="BY16" s="7"/>
       <c r="BZ16" s="6"/>
       <c r="CA16" s="7"/>
-      <c r="CB16" s="21" t="s">
+      <c r="CB16" s="22" t="s">
         <v>7</v>
       </c>
       <c r="CI16"/>
     </row>
     <row r="17" spans="2:87" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="19"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="6"/>
       <c r="D17" s="7"/>
       <c r="E17" s="6"/>
@@ -2631,7 +2651,7 @@
       <c r="BY17" s="7"/>
       <c r="BZ17" s="6"/>
       <c r="CA17" s="7"/>
-      <c r="CB17" s="21" t="s">
+      <c r="CB17" s="22" t="s">
         <v>7</v>
       </c>
       <c r="CI17"/>
